--- a/biology/Neurosciences/Noyau_d'Edinger-Westphal/Noyau_d'Edinger-Westphal.xlsx
+++ b/biology/Neurosciences/Noyau_d'Edinger-Westphal/Noyau_d'Edinger-Westphal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Noyau_d%27Edinger-Westphal</t>
+          <t>Noyau_d'Edinger-Westphal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le noyau d'Edinger-Westphal ou noyau oculomoteur accessoire, est une structure anatomique située dans le mésencéphale. C'est le noyau accessoire parasympathique du III (nerf oculomoteur commun) qui assure l'innervation du muscle sphincter de l'iris. Ce noyau est notamment impliqué dans le réflexe photomoteur et le réflexe d'accommodation. Ses lésions spécifiques peuvent se traduire cliniquement par le signe d'Argyll Robertson, un signe classique du tabès.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Noyau_d%27Edinger-Westphal</t>
+          <t>Noyau_d'Edinger-Westphal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce noyau fut décrit pour la première fois chez le fœtus en 1885 par Ludwig Edinger de Francfort[1] et chez l'adulte  en 1887 par Carl Westphal de Berlin[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce noyau fut décrit pour la première fois chez le fœtus en 1885 par Ludwig Edinger de Francfort et chez l'adulte  en 1887 par Carl Westphal de Berlin.
 </t>
         </is>
       </c>
